--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Myoc-Fzd10.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Myoc-Fzd10.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.714093</v>
+        <v>0.138156</v>
       </c>
       <c r="H2">
-        <v>2.142279</v>
+        <v>0.414468</v>
       </c>
       <c r="I2">
-        <v>0.001553869939232348</v>
+        <v>0.0003010053794496939</v>
       </c>
       <c r="J2">
-        <v>0.001553869939232348</v>
+        <v>0.0003010053794496939</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.03424551997</v>
+        <v>0.006625501240000001</v>
       </c>
       <c r="R2">
-        <v>0.30820967973</v>
+        <v>0.05962951116</v>
       </c>
       <c r="S2">
-        <v>0.001553869939232348</v>
+        <v>0.0003010053794496939</v>
       </c>
       <c r="T2">
-        <v>0.001553869939232348</v>
+        <v>0.0003010053794496939</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>1360.232666</v>
       </c>
       <c r="I3">
-        <v>0.9866243612803347</v>
+        <v>0.9878623917146768</v>
       </c>
       <c r="J3">
-        <v>0.9866243612803348</v>
+        <v>0.9878623917146769</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -632,10 +632,10 @@
         <v>195.69667365742</v>
       </c>
       <c r="S3">
-        <v>0.9866243612803347</v>
+        <v>0.9878623917146768</v>
       </c>
       <c r="T3">
-        <v>0.9866243612803348</v>
+        <v>0.9878623917146769</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.432785666666667</v>
+        <v>5.432785666666668</v>
       </c>
       <c r="H4">
         <v>16.298357</v>
       </c>
       <c r="I4">
-        <v>0.01182176878043295</v>
+        <v>0.01183660290587349</v>
       </c>
       <c r="J4">
-        <v>0.01182176878043295</v>
+        <v>0.01183660290587349</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -691,13 +691,13 @@
         <v>0.2605382912877778</v>
       </c>
       <c r="R4">
-        <v>2.34484462159</v>
+        <v>2.344844621590001</v>
       </c>
       <c r="S4">
-        <v>0.01182176878043295</v>
+        <v>0.01183660290587349</v>
       </c>
       <c r="T4">
-        <v>0.01182176878043295</v>
+        <v>0.01183660290587349</v>
       </c>
     </row>
   </sheetData>
